--- a/Assets/Resources/ExcelData/GameData.xlsx
+++ b/Assets/Resources/ExcelData/GameData.xlsx
@@ -1,63 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c6h12yith/HexGameTogether/Assets/Resources/ExcelData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C6BCD9-309F-754A-A2B1-75025C81AF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="900" yWindow="900" windowWidth="23840" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="2" r:id="rId1"/>
-    <sheet name="玩家治疗数据" sheetId="1" r:id="rId2"/>
-    <sheet name="Boss技能设计" sheetId="3" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="5" r:id="rId2"/>
+    <sheet name="玩家治疗数据" sheetId="1" r:id="rId3"/>
+    <sheet name="Boss技能设计" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discription#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPCost#int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastInterval#float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastScript#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的释放脚本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神圣之光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,19 +36,179 @@
     <t>瞬发,治疗600,并持续恢复</t>
   </si>
   <si>
-    <t>CD#float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CastSingle(Focus);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默凝视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬发,最高血量敌人沉默两回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+string
+技能名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power
+int
+技能强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPCost
+int
+蓝耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD
+float
+冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastInterval
+float
+技能释放时间(-1为瞬发)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastScript
+string
+施法脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID
+int
+编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神罚祈祷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷3回合，对目标敌人造成自身攻击400%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description
+string
+技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏唱后获得一个持续10s的护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有技能强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有蓝耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有技能释放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有施法脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID
+int
+任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name
+string
+任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskText
+string
+任务文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskTarget
+string
+任务目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的12技能(仅提示最先出现Type错误列的警告，剩下的自动跳过)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +224,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +274,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -129,6 +299,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +383,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,104 +627,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="112" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="2">
+        <v>600</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" s="2">
+        <v>400</v>
+      </c>
+      <c r="E3" s="2">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>350</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>230</v>
+      </c>
+      <c r="E5" s="2">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -528,16 +980,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315F0B9-C775-EA4C-B489-D3B16D6A9832}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -546,16 +1031,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="113" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
